--- a/election_votar_data/SATKANIA/CHARATI/152335/152335_com_535_male_without_photo_31_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/CHARATI/152335/152335_com_535_male_without_photo_31_2025-11-24.xlsx
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৮২</t>
+          <t>১৫২৩৩৪০০০০৮২</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৮৩</t>
+          <t>১৫২৩৩৪০০০০৮৩</t>
         </is>
       </c>
       <c r="D344" s="4" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৭৩</t>
+          <t>১৫২৩৩৪০০০০৭৩</t>
         </is>
       </c>
       <c r="D427" s="4" t="inlineStr">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৯২</t>
+          <t>১৫২৩৩৪০০০০৯২</t>
         </is>
       </c>
       <c r="D437" s="4" t="inlineStr">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৫০০০০৮৮</t>
+          <t>১৫২৩৩৪০০০০৮৮</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
